--- a/doc/Request .xlsx
+++ b/doc/Request .xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="195" windowWidth="15000" windowHeight="4620"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="67">
   <si>
     <t>Describle</t>
   </si>
@@ -147,30 +147,15 @@
     <t>"room1"</t>
   </si>
   <si>
-    <t>max_num</t>
-  </si>
-  <si>
     <t>"12"</t>
   </si>
   <si>
-    <t>min_num</t>
-  </si>
-  <si>
-    <t>"2"</t>
-  </si>
-  <si>
     <t>bet_score</t>
   </si>
   <si>
     <t>"1000"</t>
   </si>
   <si>
-    <t>field</t>
-  </si>
-  <si>
-    <t>"math"</t>
-  </si>
-  <si>
     <t>"view_room"</t>
   </si>
   <si>
@@ -226,13 +211,19 @@
   </si>
   <si>
     <t>Nếu là chủ phòng dừng trận đấu sẽ bị trừ đi số điểm đã cược</t>
+  </si>
+  <si>
+    <t>owner_id</t>
+  </si>
+  <si>
+    <t>max_member</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -331,9 +322,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -350,6 +338,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -440,7 +431,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -475,7 +465,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -651,14 +640,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="25.5" customWidth="1"/>
     <col min="2" max="2" width="17.875" customWidth="1"/>
@@ -666,30 +655,30 @@
     <col min="4" max="4" width="48.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:4" ht="23.25" customHeight="1">
+      <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10" t="s">
+      <c r="C1" s="9"/>
+      <c r="D1" s="9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10"/>
+    <row r="2" spans="1:4" ht="19.5" customHeight="1">
+      <c r="A2" s="9"/>
       <c r="B2" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="10"/>
-    </row>
-    <row r="3" spans="1:4" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
+      <c r="D2" s="9"/>
+    </row>
+    <row r="3" spans="1:4" s="4" customFormat="1" ht="19.5" customHeight="1">
+      <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -698,42 +687,42 @@
       <c r="C3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="12"/>
+    <row r="4" spans="1:4" ht="22.5" customHeight="1">
+      <c r="A4" s="11"/>
       <c r="B4" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="14"/>
-    </row>
-    <row r="5" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="12"/>
+      <c r="D4" s="13"/>
+    </row>
+    <row r="5" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A5" s="11"/>
       <c r="B5" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="14"/>
-    </row>
-    <row r="6" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="12"/>
+      <c r="D5" s="13"/>
+    </row>
+    <row r="6" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A6" s="11"/>
       <c r="B6" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="14"/>
-    </row>
-    <row r="7" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
+      <c r="D6" s="13"/>
+    </row>
+    <row r="7" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A7" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -744,29 +733,29 @@
       </c>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="9"/>
+    <row r="8" spans="1:4">
+      <c r="A8" s="8"/>
       <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="9"/>
+    <row r="9" spans="1:4">
+      <c r="A9" s="8"/>
       <c r="B9" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D9" s="14"/>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
@@ -778,451 +767,437 @@
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" s="1"/>
       <c r="B12" s="2" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" s="1"/>
       <c r="B13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" s="1"/>
       <c r="B14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="B16" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>51</v>
-      </c>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>5</v>
-      </c>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="B22" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>6</v>
-      </c>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:4" ht="24" customHeight="1">
+      <c r="A28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D28" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1" t="s">
+    </row>
+    <row r="29" spans="1:4" ht="48" customHeight="1">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C29" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="14"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1" t="s">
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D30" s="8"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="C31" s="1" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+        <v>59</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="D35" s="14"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D36" s="8"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+        <v>49</v>
+      </c>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1"/>
-      <c r="B37" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="1"/>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
-        <v>21</v>
-      </c>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="1"/>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
-        <v>22</v>
-      </c>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="1"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1"/>
-      <c r="D59" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="D8:D9"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="D3:D6"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="D8:D9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1230,24 +1205,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc/Request .xlsx
+++ b/doc/Request .xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="195" windowWidth="15000" windowHeight="4620"/>
@@ -177,9 +177,6 @@
     <t>"ready"</t>
   </si>
   <si>
-    <t>"play"</t>
-  </si>
-  <si>
     <t>phải là chủ phòng mới có quyền này. Hệ thống sẽ kiểm tra với user_id này có tồn tại phòng chưa, phòng này đủ điều kiện để chơi không? Khi người chơi ready, họ sẽ liên tục gửi các request đến hệ thống để kiểm tra xem tín hiệu bắt đầu trò chơi đã được khởi tạo chưa.</t>
   </si>
   <si>
@@ -217,13 +214,16 @@
   </si>
   <si>
     <t>max_member</t>
+  </si>
+  <si>
+    <t>"play_game"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,7 +300,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -322,6 +322,12 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -338,9 +344,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -431,6 +434,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -465,6 +469,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -640,14 +645,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D58"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.5" customWidth="1"/>
     <col min="2" max="2" width="17.875" customWidth="1"/>
@@ -655,30 +660,30 @@
     <col min="4" max="4" width="48.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="23.25" customHeight="1">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9" t="s">
+      <c r="C1" s="11"/>
+      <c r="D1" s="11" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A2" s="9"/>
+    <row r="2" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="11"/>
       <c r="B2" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="9"/>
-    </row>
-    <row r="3" spans="1:4" s="4" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A3" s="10" t="s">
+      <c r="D2" s="11"/>
+    </row>
+    <row r="3" spans="1:4" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -687,42 +692,42 @@
       <c r="C3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="14" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="22.5" customHeight="1">
-      <c r="A4" s="11"/>
+    <row r="4" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="13"/>
       <c r="B4" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="13"/>
-    </row>
-    <row r="5" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A5" s="11"/>
+      <c r="D4" s="15"/>
+    </row>
+    <row r="5" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="13"/>
       <c r="B5" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="13"/>
-    </row>
-    <row r="6" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A6" s="11"/>
+      <c r="D5" s="15"/>
+    </row>
+    <row r="6" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="13"/>
       <c r="B6" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="13"/>
-    </row>
-    <row r="7" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A7" s="8" t="s">
+      <c r="D6" s="15"/>
+    </row>
+    <row r="7" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -733,29 +738,29 @@
       </c>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="8"/>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="10"/>
       <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="8"/>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="10"/>
       <c r="B9" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="14"/>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
@@ -767,7 +772,7 @@
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="2" t="s">
         <v>41</v>
@@ -777,27 +782,27 @@
       </c>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="2" t="s">
         <v>44</v>
@@ -807,13 +812,13 @@
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>4</v>
       </c>
@@ -825,19 +830,19 @@
       </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
@@ -849,7 +854,7 @@
       </c>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
         <v>48</v>
@@ -859,7 +864,7 @@
       </c>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
         <v>39</v>
@@ -869,7 +874,7 @@
       </c>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,7 +886,7 @@
       </c>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
         <v>48</v>
@@ -891,7 +896,7 @@
       </c>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
         <v>39</v>
@@ -901,7 +906,7 @@
       </c>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>7</v>
       </c>
@@ -913,7 +918,7 @@
       </c>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
         <v>39</v>
@@ -923,13 +928,13 @@
       </c>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:4" ht="24" customHeight="1">
+    <row r="28" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
@@ -937,260 +942,266 @@
         <v>35</v>
       </c>
       <c r="C28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D28" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D28" s="14" t="s">
+    </row>
+    <row r="29" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="9"/>
+    </row>
+    <row r="30" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="8"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="48" customHeight="1">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D29" s="14"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>56</v>
+      </c>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="D35" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D34" s="14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D35" s="14"/>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1" t="s">
+      <c r="D36" s="9"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D36" s="1"/>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="1" t="s">
-        <v>11</v>
-      </c>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="1"/>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="1" t="s">
-        <v>22</v>
-      </c>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="1"/>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
     </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="D28:D29"/>
-    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="D35:D36"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="B1:C1"/>
@@ -1205,24 +1216,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/doc/Request .xlsx
+++ b/doc/Request .xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="195" windowWidth="15000" windowHeight="4620"/>
@@ -156,9 +156,6 @@
     <t>"1000"</t>
   </si>
   <si>
-    <t>"view_room"</t>
-  </si>
-  <si>
     <t>"join_room"</t>
   </si>
   <si>
@@ -217,13 +214,16 @@
   </si>
   <si>
     <t>"play_game"</t>
+  </si>
+  <si>
+    <t>"get_list_room"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -434,7 +434,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -469,7 +468,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -645,14 +643,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="25.5" customWidth="1"/>
     <col min="2" max="2" width="17.875" customWidth="1"/>
@@ -660,7 +658,7 @@
     <col min="4" max="4" width="48.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="23.25" customHeight="1">
       <c r="A1" s="11" t="s">
         <v>1</v>
       </c>
@@ -672,7 +670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="19.5" customHeight="1">
       <c r="A2" s="11"/>
       <c r="B2" s="3" t="s">
         <v>31</v>
@@ -682,7 +680,7 @@
       </c>
       <c r="D2" s="11"/>
     </row>
-    <row r="3" spans="1:4" s="4" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" s="4" customFormat="1" ht="19.5" customHeight="1">
       <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
@@ -696,7 +694,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="22.5" customHeight="1">
       <c r="A4" s="13"/>
       <c r="B4" s="1" t="s">
         <v>24</v>
@@ -706,7 +704,7 @@
       </c>
       <c r="D4" s="15"/>
     </row>
-    <row r="5" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="17.25" customHeight="1">
       <c r="A5" s="13"/>
       <c r="B5" s="1" t="s">
         <v>26</v>
@@ -716,7 +714,7 @@
       </c>
       <c r="D5" s="15"/>
     </row>
-    <row r="6" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="17.25" customHeight="1">
       <c r="A6" s="13"/>
       <c r="B6" s="1" t="s">
         <v>28</v>
@@ -726,7 +724,7 @@
       </c>
       <c r="D6" s="15"/>
     </row>
-    <row r="7" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="17.25" customHeight="1">
       <c r="A7" s="10" t="s">
         <v>3</v>
       </c>
@@ -738,7 +736,7 @@
       </c>
       <c r="D7" s="7"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="10"/>
       <c r="B8" s="2" t="s">
         <v>24</v>
@@ -750,7 +748,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="10"/>
       <c r="B9" s="2" t="s">
         <v>26</v>
@@ -760,7 +758,7 @@
       </c>
       <c r="D9" s="9"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
@@ -772,7 +770,7 @@
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="2" t="s">
         <v>41</v>
@@ -782,27 +780,27 @@
       </c>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" s="1"/>
       <c r="B12" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" s="1"/>
       <c r="B13" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>43</v>
       </c>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" s="1"/>
       <c r="B14" s="2" t="s">
         <v>44</v>
@@ -812,13 +810,13 @@
       </c>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
         <v>4</v>
       </c>
@@ -826,23 +824,23 @@
         <v>35</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
@@ -850,31 +848,31 @@
         <v>35</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" s="1"/>
       <c r="B20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" s="1"/>
       <c r="B21" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
         <v>6</v>
       </c>
@@ -882,31 +880,31 @@
         <v>35</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
         <v>7</v>
       </c>
@@ -914,27 +912,27 @@
         <v>35</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4">
       <c r="A26" s="1"/>
       <c r="B26" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="24" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
@@ -942,29 +940,29 @@
         <v>35</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="48" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="9"/>
     </row>
-    <row r="30" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="48" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="D30" s="8"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
         <v>9</v>
       </c>
@@ -972,55 +970,55 @@
         <v>35</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4">
       <c r="A32" s="1"/>
       <c r="B32" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4">
       <c r="A33" s="1"/>
       <c r="B33" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4">
       <c r="A34" s="1"/>
       <c r="B34" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D34" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1"/>
       <c r="B35" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="D35" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
         <v>10</v>
       </c>
@@ -1028,27 +1026,27 @@
         <v>35</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D36" s="9"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4">
       <c r="A37" s="1"/>
       <c r="B37" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
         <v>11</v>
       </c>
@@ -1056,7 +1054,7 @@
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
         <v>14</v>
       </c>
@@ -1064,7 +1062,7 @@
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
         <v>15</v>
       </c>
@@ -1072,7 +1070,7 @@
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
         <v>12</v>
       </c>
@@ -1080,7 +1078,7 @@
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
         <v>13</v>
       </c>
@@ -1088,7 +1086,7 @@
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
         <v>17</v>
       </c>
@@ -1096,7 +1094,7 @@
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
         <v>18</v>
       </c>
@@ -1104,7 +1102,7 @@
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
         <v>19</v>
       </c>
@@ -1112,7 +1110,7 @@
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
         <v>16</v>
       </c>
@@ -1120,7 +1118,7 @@
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
         <v>20</v>
       </c>
@@ -1128,7 +1126,7 @@
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
         <v>21</v>
       </c>
@@ -1136,31 +1134,31 @@
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
         <v>22</v>
       </c>
@@ -1168,31 +1166,31 @@
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -1216,24 +1214,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
